--- a/project/Sprint06.xlsx
+++ b/project/Sprint06.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\masters\cse551\CSE551\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmiele\Documents\Masters\CSE551\CSE551\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t xml:space="preserve">Product backlog item  </t>
   </si>
@@ -125,8 +125,21 @@
     <t>Create initial draft</t>
   </si>
   <si>
+    <t>HW3</t>
+  </si>
+  <si>
+    <t>HW3 - Initial + Logging + Error Handling</t>
+  </si>
+  <si>
+    <t>HW3 - Databasing</t>
+  </si>
+  <si>
+    <t>HW3 - Home page</t>
+  </si>
+  <si>
     <t>Plan to have paper initial draft done this week.
-Shifting Project work to out of scope for now.</t>
+Shifting Project work to out of scope for now.
+Shifted focus from paper to HW3 to meet closer deadline</t>
   </si>
 </sst>
 </file>
@@ -472,25 +485,25 @@
                   <c:v>Initial Estimate of Efforts</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3/8/2016</c:v>
+                  <c:v>16/03/08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/9/2016</c:v>
+                  <c:v>16/03/09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/10/2016</c:v>
+                  <c:v>16/03/10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3/11/2016</c:v>
+                  <c:v>16/03/11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3/12/2016</c:v>
+                  <c:v>16/03/12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3/13/2016</c:v>
+                  <c:v>16/03/13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3/14/2016</c:v>
+                  <c:v>16/03/14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -502,28 +515,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,25 +583,25 @@
                   <c:v>Initial Estimate of Efforts</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3/8/2016</c:v>
+                  <c:v>16/03/08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/9/2016</c:v>
+                  <c:v>16/03/09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/10/2016</c:v>
+                  <c:v>16/03/10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3/11/2016</c:v>
+                  <c:v>16/03/11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3/12/2016</c:v>
+                  <c:v>16/03/12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3/13/2016</c:v>
+                  <c:v>16/03/13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3/14/2016</c:v>
+                  <c:v>16/03/14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -600,28 +613,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.142857142857142</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2857142857142847</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.428571428571427</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5714285714285694</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7142857142857122</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.857142857142855</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.2204460492503131E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,36 +1825,36 @@
         <v>3</v>
       </c>
       <c r="D2" s="24">
-        <f>SUM(D$4:D$992)</f>
-        <v>13</v>
+        <f t="shared" ref="D2:K2" si="0">SUM(D$4:D$995)</f>
+        <v>28</v>
       </c>
       <c r="E2" s="25">
-        <f>SUM(E$4:E$992)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="F2" s="25">
-        <f>SUM(F$4:F$992)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="G2" s="25">
-        <f>SUM(G$4:G$992)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="H2" s="25">
-        <f>SUM(H$4:H$992)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="I2" s="25">
-        <f>SUM(I$4:I$992)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J2" s="25">
-        <f>SUM(J$4:J$992)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="K2" s="25">
-        <f>SUM(K$4:K$992)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1852,35 +1865,35 @@
       </c>
       <c r="D3" s="24">
         <f>D2</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E3" s="25">
-        <f t="shared" ref="E3:K3" si="0">D$3-$D$2/7</f>
-        <v>11.142857142857142</v>
+        <f t="shared" ref="E3:K3" si="1">D$3-$D$2/7</f>
+        <v>24</v>
       </c>
       <c r="F3" s="25">
-        <f t="shared" si="0"/>
-        <v>9.2857142857142847</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G3" s="25">
-        <f t="shared" si="0"/>
-        <v>7.428571428571427</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="H3" s="25">
-        <f t="shared" si="0"/>
-        <v>5.5714285714285694</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="I3" s="25">
-        <f t="shared" si="0"/>
-        <v>3.7142857142857122</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="J3" s="25">
-        <f t="shared" si="0"/>
-        <v>1.857142857142855</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="K3" s="25">
-        <f t="shared" si="0"/>
-        <v>-2.2204460492503131E-15</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>30</v>
@@ -1904,35 +1917,35 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:K10" si="1">E4</f>
+        <f t="shared" ref="F4:K13" si="2">E4</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
       </c>
       <c r="M4">
-        <f>SUMIF(C4:C10, L4, D4:D10)</f>
-        <v>5</v>
+        <f>SUMIF(C4:C13, L4, D4:D13)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1949,39 +1962,39 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E10" si="2">D5</f>
+        <f t="shared" ref="E5:E13" si="3">D5</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>27</v>
       </c>
       <c r="M5">
-        <f>SUMIF(C5:C11, L5, D5:D11)</f>
-        <v>4</v>
+        <f>SUMIF(C5:C14, L5, D5:D14)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1998,39 +2011,39 @@
         <v>1</v>
       </c>
       <c r="E6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
       <c r="M6">
-        <f>SUMIF(C6:C12, L6, D6:D12)</f>
-        <v>3</v>
+        <f>SUMIF(C6:C15, L6, D6:D15)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2051,27 +2064,27 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:K7" si="3">E7</f>
+        <f t="shared" ref="F7:K7" si="4">E7</f>
         <v>3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -2089,31 +2102,31 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:K9" si="4">D8</f>
+        <f t="shared" ref="E8:K10" si="5">D8</f>
         <v>3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -2131,119 +2144,203 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
+        <f>D10</f>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E12" si="6">D11</f>
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F12" si="7">E11</f>
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G12" si="8">F11</f>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="9">G11</f>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I12" si="10">H11</f>
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K12" si="11">J11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2307,13 +2404,52 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A11:K18"/>
+    <mergeCell ref="A14:K21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C13">
       <formula1>"Peter, Daniela, Jennifer"</formula1>
     </dataValidation>
   </dataValidations>
